--- a/data/fine_gaussian_svm_results.xlsx
+++ b/data/fine_gaussian_svm_results.xlsx
@@ -457,13 +457,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.007246</v>
+        <v>0.00734</v>
       </c>
       <c r="B2" t="n">
-        <v>0.000307</v>
+        <v>0.001798</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00415</v>
+        <v>0.004027</v>
       </c>
       <c r="D2" t="n">
         <v>0.00643</v>
